--- a/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
+++ b/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R. M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R. M.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R. M.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Nilton-M. T. R. M.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Sandro-Programação de Computadores_(4)bimestre</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0_(2)semestre</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0_(4)bimestre</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Sandro-Programação de Computadores_(4)bimestre</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0_(2)semestre</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,19 +633,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Sandro-Circuitos Elétricos 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Sandro-Programação de Computadores_(4)bimestre</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0_(2)semestre</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>-</t>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,19 +665,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Sandro-Circuitos Elétricos 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Sandro-Programação de Computadores_(4)bimestre</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0_(2)semestre</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potência</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potência</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potência</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potência</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
+++ b/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[João Paulo-Sistemas Digitais, 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R. M.</t>
+          <t>Sandro-Circuitos Elétricos 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nilton-M. T. R. M.</t>
+          <t>Sandro-Circuitos Elétricos 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sandro-Programação de Computadores_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-M. T. R. M.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sandro-Programação de Computadores_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
+          <t>Nilton-M. T. R. M.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sandro-Programação de Computadores_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sandro-Programação de Computadores_(4)bimestre</t>
+          <t>0_(2)semestre</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(4)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Cleidson-Eletronica Analógica e de Potência</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,22 +857,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Cleidson-Eletronica Analógica e de Potência</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">

--- a/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
+++ b/data/turm/MCT-2A/MCT-2A_(4)bimestre.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sandro-Circuitos Elétricos 2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Pedro Bispo-Acionamentos Elétricos_(4)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>André Guimarães-CAD_(2)semestre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sandro-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+          <t>Pedro Bispo-Acionamentos Elétricos_(4)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>André Guimarães-CAD_(2)semestre</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pedro Bispo-Acionamentos Elétricos_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>André Guimarães-CAD_(2)semestre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Nilton-M. T. R. M.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0_(2)semestre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pedro Bispo-Acionamentos Elétricos_(4)bimestre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>André Guimarães-CAD_(2)semestre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Nilton-M. T. R. M.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0_(2)semestre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0_(4)bimestre</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
         </is>
       </c>
     </row>
@@ -670,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Sistemas Digitais, 0]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>Sandro-Circuitos Elétricos 2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0_(4)bimestre</t>
+          <t>[0, 0, João Paulo-Sistemas Digitais]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potência</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Cleidson-Eletronica Analógica e de Potência</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potência</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cleidson-Eletronica Analógica e de Potência</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
